--- a/selected_parameters/parameters_world1000m.xlsx
+++ b/selected_parameters/parameters_world1000m.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNAM\Documents\mofuss\selected_parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDE6894-9349-4E70-8E66-CB59FF494818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD873895-05C9-4758-96EB-854A1D541E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="Continent" sheetId="4" r:id="rId2"/>
+    <sheet name="Regions" sheetId="2" r:id="rId3"/>
+    <sheet name="Countries" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="305">
   <si>
     <t>Var</t>
   </si>
@@ -533,9 +536,6 @@
     <t>GEpoly</t>
   </si>
   <si>
-    <t>1 will ingest a Google Earth kml / 0 will ingest a vector of any format .shp .gpkg etc</t>
-  </si>
-  <si>
     <t>GLOBAL ECOLOGICAL ZONES</t>
   </si>
   <si>
@@ -614,61 +614,343 @@
     <t>Do you want yo run your own static IDW for debugging purposes? Use YES or NO</t>
   </si>
   <si>
-    <t>HND</t>
-  </si>
-  <si>
     <t>Adrian &amp; Rob</t>
   </si>
   <si>
     <t>Somerville, US</t>
   </si>
   <si>
+    <t>UNFCCC and TNC</t>
+  </si>
+  <si>
+    <t>Start is hardwired to 2010 following input datasets (AGB mainly), opctions are 2020,2030,2035,2040,2050</t>
+  </si>
+  <si>
+    <t>demand_col</t>
+  </si>
+  <si>
+    <t>Use "fuel_tons1", "fuel_tons2", or "fuel_tons3"</t>
+  </si>
+  <si>
+    <t>fuel_tons3</t>
+  </si>
+  <si>
+    <t>MDG</t>
+  </si>
+  <si>
+    <t>region2BprocessedCont</t>
+  </si>
+  <si>
+    <t>region2BprocessedReg</t>
+  </si>
+  <si>
+    <t>region2BprocessedCtry</t>
+  </si>
+  <si>
+    <t>SSA</t>
+  </si>
+  <si>
+    <t>SSA_adm0_madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [55] "Malawi"                           "Malaysia"                         "Mali"                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [58] "Mauritania"                       "Mauritius"                        "Mongolia"                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [61] "Morocco"                          "Mozambique"                       "Myanmar"                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [64] "México"                           "Namibia"                          "Nepal"                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [67] "Nicaragua"                        "Niger"                            "Nigeria"                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [70] "Pakistan"                         "Panama"                           "Papua New Guinea"                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [73] "Paraguay"                         "Peru"                             "Philippines"                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [76] "Republic of the Congo"            "Rwanda"                           "Senegal"                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [79] "Sierra Leone"                     "Somalia"                          "South Africa"                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [82] "South Sudan"                      "Sri Lanka"                        "Sudan"                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [85] "Swaziland"                        "Syria"                            "São Tomé and Príncipe"           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [88] "Tajikistan"                       "Tanzania"                         "Thailand"                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [91] "Timor-Leste"                      "Togo"                             "Tunisia"                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [94] "Turkey"                           "Turkmenistan"                     "Uganda"                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [97] "Uzbekistan"                       "Vietnam"                          "Zambia"                          </t>
+  </si>
+  <si>
+    <t>[100] "Zimbabwe"</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>"SSA" ,"LATAM", "ASIA"</t>
+  </si>
+  <si>
+    <t>ASIA_adm0_bangladesh</t>
+  </si>
+  <si>
+    <t>ASIA_adm0_bhutan</t>
+  </si>
+  <si>
+    <t>ASIA_adm0_central</t>
+  </si>
+  <si>
+    <t>ASIA_adm0_china</t>
+  </si>
+  <si>
+    <t>ASIA_adm0_india</t>
+  </si>
+  <si>
+    <t>ASIA_adm0_indonesia</t>
+  </si>
+  <si>
+    <t>ASIA_adm0_malaysia</t>
+  </si>
+  <si>
+    <t>ASIA_adm0_middleeast</t>
+  </si>
+  <si>
+    <t>ASIA_adm0_mongolia</t>
+  </si>
+  <si>
+    <t>ASIA_adm0_myanmar</t>
+  </si>
+  <si>
+    <t>ASIA_adm0_nepal</t>
+  </si>
+  <si>
+    <t>ASIA_adm0_pakistan</t>
+  </si>
+  <si>
+    <t>ASIA_adm0_philippines</t>
+  </si>
+  <si>
+    <t>ASIA_adm0_seasia</t>
+  </si>
+  <si>
+    <t>ASIA_adm0_srilanka</t>
+  </si>
+  <si>
+    <t>ASIA_adm0_timorleste</t>
+  </si>
+  <si>
+    <t>LATAM_adm0_bolivia</t>
+  </si>
+  <si>
+    <t>LATAM_adm0_brazil</t>
+  </si>
+  <si>
+    <t>LATAM_adm0_CA</t>
+  </si>
+  <si>
+    <t>LATAM_adm0_colombia</t>
+  </si>
+  <si>
+    <t>LATAM_adm0_espanhola</t>
+  </si>
+  <si>
+    <t>LATAM_adm0_guyana</t>
+  </si>
+  <si>
+    <t>LATAM_adm0_jamaica</t>
+  </si>
+  <si>
+    <t>LATAM_adm0_mexico</t>
+  </si>
+  <si>
+    <t>LATAM_adm0_salvador</t>
+  </si>
+  <si>
+    <t>LATAM_adm0_southern</t>
+  </si>
+  <si>
+    <t>LATAM_adm0_western</t>
+  </si>
+  <si>
+    <t>NorAfr_adm0_west</t>
+  </si>
+  <si>
+    <t>OCEANIA_adm0_papuanewguinea</t>
+  </si>
+  <si>
+    <t>SSA_adm0_angola</t>
+  </si>
+  <si>
+    <t>SSA_adm0_benin</t>
+  </si>
+  <si>
+    <t>SSA_adm0_burkinafaso</t>
+  </si>
+  <si>
+    <t>SSA_adm0_caboverde</t>
+  </si>
+  <si>
+    <t>SSA_adm0_cdivoire</t>
+  </si>
+  <si>
+    <t>SSA_adm0_central</t>
+  </si>
+  <si>
+    <t>SSA_adm0_chad</t>
+  </si>
+  <si>
+    <t>SSA_adm0_comoros</t>
+  </si>
+  <si>
+    <t>SSA_adm0_eastern</t>
+  </si>
+  <si>
+    <t>SSA_adm0_ghana</t>
+  </si>
+  <si>
+    <t>SSA_adm0_kenya</t>
+  </si>
+  <si>
+    <t>SSA_adm0_malambique</t>
+  </si>
+  <si>
+    <t>SSA_adm0_mali</t>
+  </si>
+  <si>
+    <t>SSA_adm0_mauritania</t>
+  </si>
+  <si>
+    <t>SSA_adm0_mauritius</t>
+  </si>
+  <si>
+    <t>SSA_adm0_niger</t>
+  </si>
+  <si>
+    <t>SSA_adm0_northcentral</t>
+  </si>
+  <si>
+    <t>SSA_adm0_senegambia</t>
+  </si>
+  <si>
+    <t>SSA_adm0_southern</t>
+  </si>
+  <si>
+    <t>SSA_adm0_stp</t>
+  </si>
+  <si>
+    <t>SSA_adm0_tanzania</t>
+  </si>
+  <si>
+    <t>SSA_adm0_togo</t>
+  </si>
+  <si>
+    <t>SSA_adm0_uganda</t>
+  </si>
+  <si>
+    <t>SSA_adm0_westcentral</t>
+  </si>
+  <si>
+    <t>SSA_adm0_western</t>
+  </si>
+  <si>
+    <t>SSA_adm0_westsouthern</t>
+  </si>
+  <si>
+    <t>SSA_adm0_zambia</t>
+  </si>
+  <si>
+    <t>SSA_adm0_zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Bangladesh"                       "Benin"                            "Bhutan"                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Afghanistan"                      "Algeria"                          "Angola"                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Argentina"                        "Armenia"                          "Azerbaijan"                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Bolivia"                          "Botswana"                         "Brazil"                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Burkina Faso"                     "Burundi"                          "Cabo Verde"                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Cambodia"                         "Cameroon"                         "Central African Republic"        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Chad"                             "China"                            "Colombia"                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Comoros"                          "Costa Rica"                       "Côte d'Ivoire"                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Democratic Republic of the Congo" "Djibouti"                         "Dominican Republic"              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ecuador"                          "El Salvador"                      "Equatorial Guinea"               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Eritrea"                          "Ethiopia"                         "Gabon"                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Gambia"                           "Georgia"                          "Ghana"                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Guatemala"                        "Guinea"                           "Guinea-Bissau"                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Guyana"                           "Haiti"                            "Honduras"                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"India"                            "Indonesia"                        "Iran"                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Iraq"                             "Jamaica"                          "Jordan"                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Kazakhstan"                       "Kenya"                            "Kyrgyzstan"                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Laos"                             "Liberia"                          "Madagascar"                      </t>
+  </si>
+  <si>
+    <t>1 will ingest a Google Earth kml / 0 will ingest a vector of any format .shp .gpkg etc. If 1 you will be asked to select which .kml</t>
+  </si>
+  <si>
+    <t>Use YES or NO by passsed if GEpoly = 1. If YES you will be asked to select whichsubadmin as AoI</t>
+  </si>
+  <si>
+    <t>Use YES or NO MODIS…</t>
+  </si>
+  <si>
+    <t>Use YES or NO Copernicus…</t>
+  </si>
+  <si>
+    <t>wp_global1000m_gcs.tif</t>
+  </si>
+  <si>
     <t>world</t>
   </si>
   <si>
-    <t>wp_global1000m_gcs.tif</t>
-  </si>
-  <si>
     <t>Regional</t>
-  </si>
-  <si>
-    <t>UNFCCC and TNC</t>
-  </si>
-  <si>
-    <t>Start is hardwired to 2010 following input datasets (AGB mainly), opctions are 2020,2030,2035,2040,2050</t>
-  </si>
-  <si>
-    <t>demand_col</t>
-  </si>
-  <si>
-    <t>Use "fuel_tons1", "fuel_tons2", or "fuel_tons3"</t>
-  </si>
-  <si>
-    <t>fuel_tons3</t>
-  </si>
-  <si>
-    <t>CALIBRATION VALIDATION</t>
-  </si>
-  <si>
-    <t>ctrees_AGB_series_1km</t>
-  </si>
-  <si>
-    <t>ctrees_AGB_name_1km</t>
-  </si>
-  <si>
-    <t>ctrees_AGB_series_100m</t>
-  </si>
-  <si>
-    <t>ctrees_AGB_name_100m</t>
-  </si>
-  <si>
-    <t>mofuss_AGB_series_100m</t>
-  </si>
-  <si>
-    <t>mofuss_AGB_name_100m</t>
-  </si>
-  <si>
-    <t>ctrees_global_20XX_AGC_MWI.tif</t>
   </si>
 </sst>
 </file>
@@ -827,7 +1109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1019,6 +1301,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1196,14 +1484,18 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1580,11 +1872,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B127" sqref="B127"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,10 +1973,10 @@
         <v>135</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1692,7 +1984,7 @@
         <v>136</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
         <v>139</v>
@@ -1752,7 +2044,7 @@
         <v>147</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="C16" t="s">
         <v>149</v>
@@ -1771,13 +2063,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1792,7 +2084,7 @@
       <c r="A20" t="s">
         <v>148</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>151</v>
       </c>
       <c r="C20" t="s">
@@ -1801,29 +2093,29 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" t="s">
         <v>181</v>
-      </c>
-      <c r="B22" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1831,18 +2123,18 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>198</v>
+        <v>156</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2050</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1850,67 +2142,61 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" s="5">
-        <v>2050</v>
+        <v>153</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="C26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="B27" s="5" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>166</v>
+        <v>201</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
+        <v>202</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
+      <c r="A30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" t="s">
-        <v>21</v>
+        <v>165</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>191</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -1918,828 +2204,797 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" t="s">
-        <v>191</v>
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" t="s">
-        <v>191</v>
-      </c>
+      <c r="A42" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43">
-        <v>2010</v>
+        <v>32</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44">
-        <v>2015</v>
+        <v>33</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="B46">
+        <v>2010</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="B47">
+        <v>2015</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="A58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>60</v>
-      </c>
+      <c r="A61" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" t="s">
-        <v>191</v>
-      </c>
+      <c r="A65" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>2010</v>
+        <v>62</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="B67" t="s">
+        <v>29</v>
       </c>
       <c r="C67" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
+        <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="B69">
+        <v>2010</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
-      </c>
-      <c r="D77" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" t="s">
-        <v>85</v>
-      </c>
+      <c r="A79" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>21</v>
+      </c>
+      <c r="C80" t="s">
+        <v>190</v>
+      </c>
+      <c r="D80" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>91</v>
-      </c>
-      <c r="B84" t="s">
-        <v>92</v>
-      </c>
+      <c r="A84" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>94</v>
+        <v>21</v>
+      </c>
+      <c r="C85" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>98</v>
-      </c>
-      <c r="B89" t="s">
-        <v>99</v>
-      </c>
+      <c r="A89" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>105</v>
-      </c>
-      <c r="B94" t="s">
-        <v>106</v>
-      </c>
+      <c r="A94" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>108</v>
+        <v>21</v>
+      </c>
+      <c r="C95" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>21</v>
-      </c>
-      <c r="C97" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>112</v>
-      </c>
-      <c r="B99" t="s">
-        <v>113</v>
-      </c>
+      <c r="A99" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>21</v>
+      </c>
+      <c r="C100" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="A101" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>115</v>
-      </c>
-      <c r="B102" s="5">
-        <v>500000</v>
-      </c>
-      <c r="C102" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>184</v>
-      </c>
-      <c r="B104" t="s">
-        <v>29</v>
-      </c>
-      <c r="C104" t="s">
-        <v>191</v>
-      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>185</v>
-      </c>
-      <c r="B105" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="B105" s="5">
+        <v>5000</v>
+      </c>
+      <c r="C105" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>186</v>
-      </c>
-      <c r="B106" t="s">
-        <v>61</v>
-      </c>
+      <c r="A106" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
+      <c r="A107" t="s">
+        <v>183</v>
+      </c>
+      <c r="B107" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B108" t="s">
-        <v>29</v>
-      </c>
-      <c r="C108" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B109" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>189</v>
-      </c>
-      <c r="B110" t="s">
-        <v>61</v>
-      </c>
+      <c r="A110" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
+      <c r="A111" t="s">
+        <v>186</v>
+      </c>
+      <c r="B111" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
-      </c>
-      <c r="C112" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="B113" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>124</v>
-      </c>
-      <c r="B114" t="s">
-        <v>125</v>
-      </c>
+      <c r="A114" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>127</v>
+        <v>21</v>
+      </c>
+      <c r="C115" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D116" s="2"/>
+      <c r="A116" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>160</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>194</v>
+        <v>124</v>
+      </c>
+      <c r="B117" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>161</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>199</v>
+        <v>126</v>
+      </c>
+      <c r="B118" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>162</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>195</v>
-      </c>
+      <c r="A119" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D119" s="2"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
+      <c r="A120" t="s">
+        <v>160</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>161</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>162</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>118</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B124" t="s">
         <v>119</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C124" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>205</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C123" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>207</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C125" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B126" s="5"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>209</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C127" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B128" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2748,4 +3003,519 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0F5936-76DD-466C-A4F2-FA86ECE3F6BA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256FB7BB-BC0D-483D-9E81-1BC58DDF7F3B}">
+  <dimension ref="A2:A59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="6" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BA76E9-11D3-4B80-A439-3D2C3B3A1F54}">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>